--- a/level-3/codeforces-phase-3-1/codeforces-phase-3-1.xlsx
+++ b/level-3/codeforces-phase-3-1/codeforces-phase-3-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AAD841-BD0A-4269-A40B-C95529579D20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A746B03D-C89E-4C7A-AA99-098F33F640B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>http://codeforces.com/contest/238/problem/A</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/contest/1015/problem/C</t>
   </si>
 </sst>
 </file>
@@ -664,742 +667,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="127">
     <dxf>
       <fill>
         <patternFill>
@@ -2565,7 +1833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2651,7 +1919,7 @@
     <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27"/>
       <c r="B3" s="5">
-        <f t="shared" ref="B3:G3" si="0">SUM(B4:B789)</f>
+        <f t="shared" ref="B3:G3" si="0">SUM(B4:B790)</f>
         <v>11</v>
       </c>
       <c r="C3" s="5">
@@ -2672,10 +1940,10 @@
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="6" t="e">
-        <f t="shared" ref="H3:M3" si="1">AVERAGE(H4:H177)</f>
+        <f t="shared" ref="H3:M3" si="1">AVERAGE(H4:H178)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="6" t="e">
@@ -2699,11 +1967,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="N3" s="5">
-        <f>COUNTA(N4:N789)</f>
-        <v>100</v>
+        <f>COUNTA(N4:N790)</f>
+        <v>101</v>
       </c>
       <c r="O3" s="6">
-        <f>COUNTA(O4:O793)</f>
+        <f>COUNTA(O4:O794)</f>
         <v>0</v>
       </c>
     </row>
@@ -4502,13 +3770,13 @@
     </row>
     <row r="82" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="12"/>
       <c r="G82" s="12">
         <v>1</v>
       </c>
@@ -4519,59 +3787,59 @@
       <c r="L82" s="10"/>
       <c r="M82" s="8"/>
       <c r="N82" s="17" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="O82" s="13"/>
     </row>
     <row r="83" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="16">
-        <v>1</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
+      <c r="G83" s="12">
+        <v>1</v>
+      </c>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
       <c r="M83" s="8"/>
       <c r="N83" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="O83" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="O83" s="13"/>
     </row>
     <row r="84" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
-        <v>346</v>
+        <v>263</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="12">
-        <v>1</v>
-      </c>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
+      <c r="G84" s="16">
+        <v>1</v>
+      </c>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
       <c r="M84" s="8"/>
       <c r="N84" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="O84" s="13"/>
+        <v>94</v>
+      </c>
+      <c r="O84" s="14"/>
     </row>
     <row r="85" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
-        <v>479</v>
+        <v>346</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4588,13 +3856,13 @@
       <c r="L85" s="10"/>
       <c r="M85" s="8"/>
       <c r="N85" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O85" s="13"/>
     </row>
     <row r="86" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
-        <v>104</v>
+        <v>479</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -4611,13 +3879,13 @@
       <c r="L86" s="10"/>
       <c r="M86" s="8"/>
       <c r="N86" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O86" s="13"/>
     </row>
     <row r="87" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -4634,13 +3902,13 @@
       <c r="L87" s="10"/>
       <c r="M87" s="8"/>
       <c r="N87" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O87" s="13"/>
     </row>
     <row r="88" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
-        <v>275</v>
+        <v>175</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -4657,13 +3925,13 @@
       <c r="L88" s="10"/>
       <c r="M88" s="8"/>
       <c r="N88" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O88" s="13"/>
     </row>
     <row r="89" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12">
-        <v>498</v>
+        <v>275</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -4680,13 +3948,13 @@
       <c r="L89" s="10"/>
       <c r="M89" s="8"/>
       <c r="N89" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O89" s="13"/>
     </row>
     <row r="90" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12">
-        <v>294</v>
+        <v>498</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -4703,13 +3971,13 @@
       <c r="L90" s="10"/>
       <c r="M90" s="8"/>
       <c r="N90" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O90" s="13"/>
     </row>
     <row r="91" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -4726,13 +3994,13 @@
       <c r="L91" s="10"/>
       <c r="M91" s="8"/>
       <c r="N91" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O91" s="13"/>
     </row>
     <row r="92" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
-        <v>452</v>
+        <v>342</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -4749,13 +4017,13 @@
       <c r="L92" s="10"/>
       <c r="M92" s="8"/>
       <c r="N92" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O92" s="13"/>
     </row>
     <row r="93" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
-        <v>497</v>
+        <v>452</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -4772,13 +4040,13 @@
       <c r="L93" s="10"/>
       <c r="M93" s="8"/>
       <c r="N93" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O93" s="13"/>
     </row>
     <row r="94" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
-        <v>136</v>
+        <v>497</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -4788,20 +4056,20 @@
       <c r="G94" s="12">
         <v>1</v>
       </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
       <c r="M94" s="8"/>
       <c r="N94" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O94" s="13"/>
     </row>
     <row r="95" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
-        <v>183</v>
+        <v>136</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -4818,13 +4086,13 @@
       <c r="L95" s="7"/>
       <c r="M95" s="8"/>
       <c r="N95" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O95" s="13"/>
     </row>
     <row r="96" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -4834,20 +4102,20 @@
       <c r="G96" s="12">
         <v>1</v>
       </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
       <c r="M96" s="8"/>
       <c r="N96" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O96" s="13"/>
     </row>
     <row r="97" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -4857,20 +4125,20 @@
       <c r="G97" s="12">
         <v>1</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
       <c r="M97" s="8"/>
       <c r="N97" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O97" s="13"/>
     </row>
     <row r="98" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -4880,21 +4148,26 @@
       <c r="G98" s="12">
         <v>1</v>
       </c>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="7"/>
+      <c r="L98" s="7"/>
       <c r="M98" s="8"/>
       <c r="N98" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O98" s="13"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
-        <v>363</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
       <c r="G99" s="12">
         <v>1</v>
       </c>
@@ -4905,13 +4178,13 @@
       <c r="L99" s="10"/>
       <c r="M99" s="8"/>
       <c r="N99" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O99" s="13"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
-        <v>486</v>
+        <v>363</v>
       </c>
       <c r="G100" s="12">
         <v>1</v>
@@ -4923,13 +4196,13 @@
       <c r="L100" s="10"/>
       <c r="M100" s="8"/>
       <c r="N100" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O100" s="13"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G101" s="12">
         <v>1</v>
@@ -4941,31 +4214,31 @@
       <c r="L101" s="10"/>
       <c r="M101" s="8"/>
       <c r="N101" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O101" s="13"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
-        <v>274</v>
+        <v>485</v>
       </c>
       <c r="G102" s="12">
         <v>1</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
       <c r="M102" s="8"/>
       <c r="N102" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O102" s="13"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="12">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G103" s="12">
         <v>1</v>
@@ -4977,17 +4250,27 @@
       <c r="L103" s="7"/>
       <c r="M103" s="8"/>
       <c r="N103" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="O103" s="13"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="12">
+        <v>250</v>
+      </c>
+      <c r="G104" s="12">
+        <v>1</v>
+      </c>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="7"/>
+      <c r="L104" s="7"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="O103" s="13"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="8"/>
+      <c r="O104" s="13"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="H105" s="10"/>
@@ -5014,19 +4297,19 @@
       <c r="M107" s="8"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
       <c r="M108" s="8"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="7"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="7"/>
       <c r="M109" s="8"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -5094,19 +4377,19 @@
       <c r="M117" s="8"/>
     </row>
     <row r="118" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
       <c r="M118" s="8"/>
     </row>
     <row r="119" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
+      <c r="L119" s="7"/>
       <c r="M119" s="8"/>
     </row>
     <row r="120" spans="8:13" x14ac:dyDescent="0.3">
@@ -5206,19 +4489,19 @@
       <c r="M131" s="8"/>
     </row>
     <row r="132" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
       <c r="M132" s="8"/>
     </row>
     <row r="133" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="7"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="7"/>
       <c r="M133" s="8"/>
     </row>
     <row r="134" spans="8:13" x14ac:dyDescent="0.3">
@@ -5254,19 +4537,19 @@
       <c r="M137" s="8"/>
     </row>
     <row r="138" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
       <c r="M138" s="8"/>
     </row>
     <row r="139" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H139" s="10"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="10"/>
-      <c r="K139" s="10"/>
-      <c r="L139" s="10"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="7"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="7"/>
+      <c r="L139" s="7"/>
       <c r="M139" s="8"/>
     </row>
     <row r="140" spans="8:13" x14ac:dyDescent="0.3">
@@ -5278,19 +4561,19 @@
       <c r="M140" s="8"/>
     </row>
     <row r="141" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
       <c r="M141" s="8"/>
     </row>
     <row r="142" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="7"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="7"/>
+      <c r="L142" s="7"/>
       <c r="M142" s="8"/>
     </row>
     <row r="143" spans="8:13" x14ac:dyDescent="0.3">
@@ -5310,11 +4593,11 @@
       <c r="M144" s="8"/>
     </row>
     <row r="145" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H145" s="7"/>
-      <c r="I145" s="7"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="7"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
       <c r="M145" s="8"/>
     </row>
     <row r="146" spans="8:13" x14ac:dyDescent="0.3">
@@ -5326,11 +4609,11 @@
       <c r="M146" s="8"/>
     </row>
     <row r="147" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="7"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+      <c r="L147" s="7"/>
       <c r="M147" s="8"/>
     </row>
     <row r="148" spans="8:13" x14ac:dyDescent="0.3">
@@ -5350,11 +4633,11 @@
       <c r="M149" s="8"/>
     </row>
     <row r="150" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H150" s="7"/>
-      <c r="I150" s="7"/>
-      <c r="J150" s="7"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="7"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
       <c r="M150" s="8"/>
     </row>
     <row r="151" spans="8:13" x14ac:dyDescent="0.3">
@@ -5366,11 +4649,11 @@
       <c r="M151" s="8"/>
     </row>
     <row r="152" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H152" s="10"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="10"/>
-      <c r="K152" s="10"/>
-      <c r="L152" s="10"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="7"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="7"/>
+      <c r="L152" s="7"/>
       <c r="M152" s="8"/>
     </row>
     <row r="153" spans="8:13" x14ac:dyDescent="0.3">
@@ -5398,19 +4681,19 @@
       <c r="M155" s="8"/>
     </row>
     <row r="156" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H156" s="7"/>
-      <c r="I156" s="7"/>
-      <c r="J156" s="7"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="7"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
       <c r="M156" s="8"/>
     </row>
     <row r="157" spans="8:13" x14ac:dyDescent="0.3">
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
+      <c r="H157" s="7"/>
+      <c r="I157" s="7"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="7"/>
+      <c r="L157" s="7"/>
       <c r="M157" s="8"/>
     </row>
     <row r="158" spans="8:13" x14ac:dyDescent="0.3">
@@ -5573,12 +4856,20 @@
       <c r="L177" s="10"/>
       <c r="M177" s="8"/>
     </row>
+    <row r="178" spans="8:13" x14ac:dyDescent="0.3">
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="8"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J304">
-    <sortCondition descending="1" ref="B4:B304"/>
-    <sortCondition descending="1" ref="D4:D304"/>
-    <sortCondition descending="1" ref="F4:F304"/>
-    <sortCondition descending="1" ref="G4:G304"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J305">
+    <sortCondition descending="1" ref="B4:B305"/>
+    <sortCondition descending="1" ref="D4:D305"/>
+    <sortCondition descending="1" ref="F4:F305"/>
+    <sortCondition descending="1" ref="G4:G305"/>
   </sortState>
   <mergeCells count="15">
     <mergeCell ref="C1:C2"/>
@@ -5597,617 +4888,622 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A104:A1048576">
-    <cfRule type="cellIs" dxfId="231" priority="371" operator="equal">
+  <conditionalFormatting sqref="A105:A1048576">
+    <cfRule type="cellIs" dxfId="126" priority="375" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="230" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="323" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:G1">
-    <cfRule type="cellIs" dxfId="228" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="278" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A13:A14">
-    <cfRule type="cellIs" dxfId="227" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="277" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4 A13">
-    <cfRule type="cellIs" dxfId="226" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="276" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="222" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="221" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="271" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="217" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="267" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="216" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="212" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="262" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="cellIs" dxfId="211" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="261" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="207" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="257" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="206" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="256" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="202" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="252" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8">
-    <cfRule type="cellIs" dxfId="201" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="251" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="197" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="247" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="196" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="246" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="192" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="242" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="191" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="241" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5 O7:O14">
-    <cfRule type="cellIs" dxfId="187" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="237" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O5 O7:O13">
-    <cfRule type="cellIs" dxfId="186" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="236" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="185" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="229" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" dxfId="184" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="228" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="183" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="227" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="182" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="226" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="181" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="231" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" dxfId="180" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="179" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="219" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" dxfId="178" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="218" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="177" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="223" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="176" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="222" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="175" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="221" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" dxfId="174" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="220" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="173" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="217" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" dxfId="172" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="171" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="201" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="170" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="200" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="166" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="196" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="163" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="191" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="162" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="190" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="160" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="195" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="156" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="186" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="185" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="151" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="181" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="150" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="180" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="146" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23">
-    <cfRule type="cellIs" dxfId="145" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="175" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="141" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="171" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22">
-    <cfRule type="cellIs" dxfId="140" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="170" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="136" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="166" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="135" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="131" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="161" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="130" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O23">
-    <cfRule type="cellIs" dxfId="126" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="156" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:O23">
-    <cfRule type="cellIs" dxfId="125" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="155" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="144" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" dxfId="123" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="122" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="152" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" dxfId="121" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="151" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="120" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" dxfId="119" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="145" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="118" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="140" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" dxfId="117" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="139" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="116" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26">
-    <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="131" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A34">
-    <cfRule type="cellIs" dxfId="112" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="134" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="111" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="133" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="109" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="127" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="107" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="122" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25">
-    <cfRule type="cellIs" dxfId="106" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="126" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24">
-    <cfRule type="cellIs" dxfId="102" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="121" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:O27">
-    <cfRule type="cellIs" dxfId="99" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="117" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:O34">
-    <cfRule type="cellIs" dxfId="98" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="cellIs" dxfId="97" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="115" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77 A61">
-    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="95" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="cellIs" dxfId="94" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35:A53">
-    <cfRule type="cellIs" dxfId="93" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37:O53">
-    <cfRule type="cellIs" dxfId="92" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35:O36">
-    <cfRule type="cellIs" dxfId="91" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="108" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="83" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="101" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="cellIs" dxfId="77" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="86" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
-    <cfRule type="cellIs" dxfId="73" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="100" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="72" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="96" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="68" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="81" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:A60">
-    <cfRule type="cellIs" dxfId="67" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="95" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A58">
-    <cfRule type="cellIs" dxfId="63" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="91" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:A58">
-    <cfRule type="cellIs" dxfId="62" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:A56">
-    <cfRule type="cellIs" dxfId="60" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="85" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="cellIs" dxfId="51" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="80" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="49" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A75">
-    <cfRule type="cellIs" dxfId="48" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="75" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="cellIs" dxfId="45" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="71" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="41" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:A74">
-    <cfRule type="cellIs" dxfId="40" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="70" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" dxfId="38" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="66" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A71:A72">
-    <cfRule type="cellIs" dxfId="37" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="65" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A70">
-    <cfRule type="cellIs" dxfId="35" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A69">
-    <cfRule type="cellIs" dxfId="34" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:A69">
-    <cfRule type="cellIs" dxfId="33" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="55" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67">
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A67">
-    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A64:A65">
-    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A81">
+    <cfRule type="cellIs" dxfId="21" priority="40" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78:A82">
+    <cfRule type="cellIs" dxfId="20" priority="36" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54:O77">
     <cfRule type="cellIs" dxfId="19" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O54:O77">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O78:O81">
-    <cfRule type="cellIs" dxfId="17" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82 A84:A103">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O82 O84:O93">
-    <cfRule type="cellIs" dxfId="14" priority="23" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O94:O103">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+  <conditionalFormatting sqref="O78:O82">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="17" priority="29" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83 A85:A104">
+    <cfRule type="cellIs" dxfId="16" priority="30" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O83 O85:O94">
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O95:O104">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:N53">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N99:N103">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N5 N7:N98">
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N100:N104">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N5 N7:N81 N83:N99">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="8" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N8:N12">
+    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
     <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N82">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -6290,31 +5586,32 @@
     <hyperlink ref="N78" r:id="rId75" xr:uid="{389EAAF8-A988-4FDA-AD67-AEEF67384BB0}"/>
     <hyperlink ref="N79" r:id="rId76" xr:uid="{FA510901-22D4-45BE-BECF-9ACA4FD751B6}"/>
     <hyperlink ref="N80" r:id="rId77" xr:uid="{5135EF42-0E11-4A79-9FF0-27F202DCD04B}"/>
-    <hyperlink ref="N96" r:id="rId78" xr:uid="{36F03CCF-674D-4876-93E2-5D034A8965F2}"/>
-    <hyperlink ref="N87" r:id="rId79" xr:uid="{3E4B7ED4-9CC2-47AB-9AA1-72F1F9B1B3FE}"/>
-    <hyperlink ref="N97" r:id="rId80" xr:uid="{272E3E01-590B-4106-A9DA-B266FD693B7F}"/>
-    <hyperlink ref="N90" r:id="rId81" xr:uid="{6C073F0A-94B7-4866-B2F7-822619C94779}"/>
-    <hyperlink ref="N91" r:id="rId82" xr:uid="{A21BB106-1DA5-47B7-A701-D75BADC36988}"/>
-    <hyperlink ref="N84" r:id="rId83" xr:uid="{1E04A20D-F36B-4514-9FED-7B069504A71B}"/>
-    <hyperlink ref="N92" r:id="rId84" xr:uid="{EC49B8DD-0336-47C6-BA4F-CE58AAA713E1}"/>
-    <hyperlink ref="N85" r:id="rId85" xr:uid="{33D50536-35F2-41ED-BDDB-4C93AF58E6AE}"/>
-    <hyperlink ref="N100" r:id="rId86" xr:uid="{FE7D9443-1011-454E-9724-7AFE83102D21}"/>
-    <hyperlink ref="N89" r:id="rId87" xr:uid="{64CD8FE9-B1C5-4F11-88B2-8F4F8F904919}"/>
-    <hyperlink ref="N101" r:id="rId88" xr:uid="{49FD9121-5650-40A2-B30D-8B09B4609B3F}"/>
-    <hyperlink ref="N82" r:id="rId89" xr:uid="{274E7133-124A-4CED-973F-83D61737387A}"/>
-    <hyperlink ref="N83" r:id="rId90" xr:uid="{7B385013-A1BD-495B-9EFD-90DA1CCEF871}"/>
-    <hyperlink ref="N86" r:id="rId91" xr:uid="{729D5F3A-EA40-48EC-8651-D10C338EF5DA}"/>
-    <hyperlink ref="N88" r:id="rId92" xr:uid="{AA07DE20-3175-482A-B319-88C50A8A4BD7}"/>
-    <hyperlink ref="N94" r:id="rId93" xr:uid="{A759D01E-356C-4959-8504-86E6691DF4EE}"/>
-    <hyperlink ref="N95" r:id="rId94" xr:uid="{23CED251-46FE-43BA-8105-8471BD486345}"/>
-    <hyperlink ref="N93" r:id="rId95" xr:uid="{E15346BD-234A-4936-99A5-840BCC223200}"/>
-    <hyperlink ref="N98" r:id="rId96" xr:uid="{9E0422FC-45C0-4207-A675-3267C32C23CF}"/>
-    <hyperlink ref="N99" r:id="rId97" xr:uid="{F7E0D1FB-0E30-4B51-B830-684B5D513059}"/>
-    <hyperlink ref="N103" r:id="rId98" xr:uid="{07C48D1A-353C-4413-BFFA-4228E443EB75}"/>
-    <hyperlink ref="N102" r:id="rId99" xr:uid="{3D7C1469-B916-4019-8DB3-2F826FCBF4D4}"/>
+    <hyperlink ref="N97" r:id="rId78" xr:uid="{36F03CCF-674D-4876-93E2-5D034A8965F2}"/>
+    <hyperlink ref="N88" r:id="rId79" xr:uid="{3E4B7ED4-9CC2-47AB-9AA1-72F1F9B1B3FE}"/>
+    <hyperlink ref="N98" r:id="rId80" xr:uid="{272E3E01-590B-4106-A9DA-B266FD693B7F}"/>
+    <hyperlink ref="N91" r:id="rId81" xr:uid="{6C073F0A-94B7-4866-B2F7-822619C94779}"/>
+    <hyperlink ref="N92" r:id="rId82" xr:uid="{A21BB106-1DA5-47B7-A701-D75BADC36988}"/>
+    <hyperlink ref="N85" r:id="rId83" xr:uid="{1E04A20D-F36B-4514-9FED-7B069504A71B}"/>
+    <hyperlink ref="N93" r:id="rId84" xr:uid="{EC49B8DD-0336-47C6-BA4F-CE58AAA713E1}"/>
+    <hyperlink ref="N86" r:id="rId85" xr:uid="{33D50536-35F2-41ED-BDDB-4C93AF58E6AE}"/>
+    <hyperlink ref="N101" r:id="rId86" xr:uid="{FE7D9443-1011-454E-9724-7AFE83102D21}"/>
+    <hyperlink ref="N90" r:id="rId87" xr:uid="{64CD8FE9-B1C5-4F11-88B2-8F4F8F904919}"/>
+    <hyperlink ref="N102" r:id="rId88" xr:uid="{49FD9121-5650-40A2-B30D-8B09B4609B3F}"/>
+    <hyperlink ref="N83" r:id="rId89" xr:uid="{274E7133-124A-4CED-973F-83D61737387A}"/>
+    <hyperlink ref="N84" r:id="rId90" xr:uid="{7B385013-A1BD-495B-9EFD-90DA1CCEF871}"/>
+    <hyperlink ref="N87" r:id="rId91" xr:uid="{729D5F3A-EA40-48EC-8651-D10C338EF5DA}"/>
+    <hyperlink ref="N89" r:id="rId92" xr:uid="{AA07DE20-3175-482A-B319-88C50A8A4BD7}"/>
+    <hyperlink ref="N95" r:id="rId93" xr:uid="{A759D01E-356C-4959-8504-86E6691DF4EE}"/>
+    <hyperlink ref="N96" r:id="rId94" xr:uid="{23CED251-46FE-43BA-8105-8471BD486345}"/>
+    <hyperlink ref="N94" r:id="rId95" xr:uid="{E15346BD-234A-4936-99A5-840BCC223200}"/>
+    <hyperlink ref="N99" r:id="rId96" xr:uid="{9E0422FC-45C0-4207-A675-3267C32C23CF}"/>
+    <hyperlink ref="N100" r:id="rId97" xr:uid="{F7E0D1FB-0E30-4B51-B830-684B5D513059}"/>
+    <hyperlink ref="N104" r:id="rId98" xr:uid="{07C48D1A-353C-4413-BFFA-4228E443EB75}"/>
+    <hyperlink ref="N103" r:id="rId99" xr:uid="{3D7C1469-B916-4019-8DB3-2F826FCBF4D4}"/>
     <hyperlink ref="N6" r:id="rId100" xr:uid="{6488BEFC-2CF3-4645-A023-CD2BC48EABAD}"/>
+    <hyperlink ref="N82" r:id="rId101" xr:uid="{E2860ED6-9BA3-49D4-B7F6-225EF59998FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId101"/>
+  <pageSetup orientation="portrait" r:id="rId102"/>
 </worksheet>
 </file>